--- a/forms/app/c_assessment.xlsx
+++ b/forms/app/c_assessment.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="220">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -222,7 +222,7 @@
     <t xml:space="preserve">has_symptoms</t>
   </si>
   <si>
-    <t xml:space="preserve">if(count-selected(${patient_symptoms}) &gt; 0, 'true','false')</t>
+    <t xml:space="preserve">if(selected(${patient_symptoms}, ‘none’) , 'false','true')</t>
   </si>
   <si>
     <t xml:space="preserve">group_symptoms</t>
@@ -564,6 +564,15 @@
     <t xml:space="preserve">&lt;p style='color:red; font-weight:bold;'&gt;Refer patient to health facility&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">r_no_symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient has no symptoms. Encourage them to keep healthy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${has_symptoms}='false'</t>
+  </si>
+  <si>
     <t xml:space="preserve">list_name</t>
   </si>
   <si>
@@ -592,6 +601,12 @@
   </si>
   <si>
     <t xml:space="preserve">sudden_yellowness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of the above</t>
   </si>
   <si>
     <t xml:space="preserve">yes_no</t>
@@ -891,7 +906,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="69">
     <dxf>
       <font>
         <strike val="1"/>
@@ -1127,46 +1142,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1179,13 +1154,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1203,26 +1171,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1683,30 +1631,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:79"/>
+  <dimension ref="1:80"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="E79" activeCellId="0" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="71.4081632653061"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="70.6020408163265"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25703,12 +25651,18 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+      <c r="E79" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -25717,6 +25671,23 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -25833,227 +25804,227 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>AND($I23 = "", $A23 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
       <formula>AND(NOT($G23 = ""), $H23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:M26">
-    <cfRule type="containsText" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="34"/>
+    <cfRule type="containsText" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:M26">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
       <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:M26">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>AND($A26="end group", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:M26">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>AND($I26 = "", $A26 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>AND(AND(NOT($A26 = "end group"), NOT($A26 = "end repeat"), NOT($A26 = "")), $C26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
       <formula>AND(AND(NOT($A26 = "end group"), NOT($A26 = "end repeat"), NOT($A26 = "")), $B26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>AND(NOT($G26 = ""), $H26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:M26">
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:M26">
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
       <formula>AND($I41 = "", $A41 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
       <formula>AND(NOT($G41 = ""), $H41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:M50">
-    <cfRule type="containsText" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="50"/>
+    <cfRule type="containsText" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:M50">
-    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
+    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
+    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="58"/>
+    <cfRule type="containsText" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="containsText" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="60"/>
+    <cfRule type="containsText" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1027, "begin group") = COUNTIF($A$1:$A$1027, "end group"))</formula>
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1028, "begin group") = COUNTIF($A$1:$A$1028, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1018, "begin group") = COUNTIF($A$1:$A$1027, "end group")))</formula>
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1019, "begin group") = COUNTIF($A$1:$A$1028, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:M31">
-    <cfRule type="containsText" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+    <cfRule type="containsText" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:M31">
-    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
       <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:M31">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
       <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:M31">
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
       <formula>AND($I30 = "", $A30 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
       <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $C30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
+    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
       <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
+    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
       <formula>AND(NOT($G30 = ""), $H30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:M31">
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
       <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:M31">
-    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
       <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
-      <formula>COUNTIF($B$2:$B$1025,A30)&gt;1</formula>
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+      <formula>COUNTIF($B$2:$B$1026,A30)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D79" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D80" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -26073,24 +26044,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -26105,7 +26076,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>73</v>
@@ -26120,7 +26091,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>101</v>
@@ -26135,7 +26106,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>84</v>
@@ -26150,13 +26121,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -26165,13 +26136,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -26180,10 +26151,10 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>142</v>
@@ -26195,10 +26166,10 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>95</v>
@@ -26210,10 +26181,10 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>145</v>
@@ -26225,10 +26196,10 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>121</v>
@@ -26239,69 +26210,73 @@
       <c r="G10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="A11" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>2</v>
+        <v>194</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26309,76 +26284,87 @@
         <v>124</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B23" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>204</v>
+      <c r="C24" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -26407,47 +26393,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C2" s="16" t="n">
         <f aca="true">NOW()</f>
-        <v>43301.5475245226</v>
+        <v>43304.7756939173</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
